--- a/changes/vector.xlsx
+++ b/changes/vector.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD936EC5-5088-4DB8-8CD1-6FC811BF3A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2CC5AD-9CBD-4B45-8745-B891C5E14868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1143,10 +1143,10 @@
         <v>17</v>
       </c>
       <c r="C6" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.26</v>
       </c>
       <c r="E6" s="1">
         <v>-7</v>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>22.4</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1303,7 +1303,7 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14">
-        <f t="shared" ref="N6:N37" si="2">C14-D14*20-E14*0.8-F14*0.6-H14*5+I14*10+J14/300</f>
+        <f t="shared" ref="N14:N37" si="2">C14-D14*20-E14*0.8-F14*0.6-H14*5+I14*10+J14/300</f>
         <v>0</v>
       </c>
     </row>

--- a/changes/vector.xlsx
+++ b/changes/vector.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yifan\Documents\deadline-balancing\changes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B2CC5AD-9CBD-4B45-8745-B891C5E14868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5408F36E-F58C-471E-9FBA-BD42698D9CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="m4-barrels" sheetId="1" r:id="rId1"/>
+    <sheet name="vector" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>new</t>
   </si>
@@ -96,6 +96,42 @@
   </si>
   <si>
     <t>Summed Buffer Stock</t>
+  </si>
+  <si>
+    <t>vector_bottom_rail</t>
+  </si>
+  <si>
+    <t>Kriss Vector Std.</t>
+  </si>
+  <si>
+    <t>vector_mk1_modular_rail</t>
+  </si>
+  <si>
+    <t>Kriss Vector Mk1 Modular</t>
+  </si>
+  <si>
+    <t>vector_mk5_mlok_rail</t>
+  </si>
+  <si>
+    <t>Vector Mk5 M-Lok ModularRail</t>
+  </si>
+  <si>
+    <t>vector_round_shroud_mk1_11inch_modular</t>
+  </si>
+  <si>
+    <t>Vector Mk.1 Round Shroud 11" Modular</t>
+  </si>
+  <si>
+    <t>vector_round_shroud_mk1_9inch_modular</t>
+  </si>
+  <si>
+    <t>Vector Mk.1 Round Shroud 9" Modular</t>
+  </si>
+  <si>
+    <t>vector_mk5_side_rail</t>
+  </si>
+  <si>
+    <t>Vector Mk5 Side Rail</t>
   </si>
 </sst>
 </file>
@@ -947,7 +983,7 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,22 +1211,24 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.04</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1213,79 +1251,111 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>0.2</v>
+      </c>
+      <c r="E10">
+        <v>-4</v>
+      </c>
+      <c r="F10">
+        <v>-4</v>
+      </c>
+      <c r="M10">
+        <v>1000</v>
+      </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0.17</v>
+      </c>
+      <c r="E11">
+        <v>-2</v>
+      </c>
+      <c r="F11">
+        <v>-4</v>
+      </c>
+      <c r="M11">
+        <v>2000</v>
+      </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.5999999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>0.24</v>
+      </c>
+      <c r="E12">
+        <v>-2</v>
+      </c>
+      <c r="F12">
+        <v>-6</v>
+      </c>
+      <c r="M12">
+        <v>2000</v>
+      </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>0.19</v>
+      </c>
+      <c r="E13">
+        <v>-1</v>
+      </c>
+      <c r="F13">
+        <v>-5</v>
+      </c>
+      <c r="M13">
+        <v>1500</v>
+      </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1308,22 +1378,36 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="1">
+        <v>0</v>
+      </c>
       <c r="N15">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
